--- a/excel/excel-training/Level 2/Excel Filters Training - Keyboard Shortcuts - Part 2.xlsx
+++ b/excel/excel-training/Level 2/Excel Filters Training - Keyboard Shortcuts - Part 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonac\Dropbox\Excel Campus\Posts\Filter Mate\Launch\PLC 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai_akella/Desktop/PSSM/GITHUB/data-science/excel/excel-training/Level 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49A2860-05DD-4E0A-8EC0-A3D5407D6B3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14654E5-5322-2545-94CC-A489A3B81474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="447" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="447" firstSheet="8" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC Gallery" sheetId="29" r:id="rId1"/>
@@ -3969,8 +3969,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="466725" y="552450"/>
-          <a:ext cx="6000750" cy="3638136"/>
+          <a:off x="498475" y="549275"/>
+          <a:ext cx="6635750" cy="3638136"/>
           <a:chOff x="7686675" y="1209675"/>
           <a:chExt cx="6000750" cy="3638136"/>
         </a:xfrm>
@@ -4139,8 +4139,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="466725" y="4800600"/>
-          <a:ext cx="5391150" cy="4266668"/>
+          <a:off x="498475" y="4797425"/>
+          <a:ext cx="5962650" cy="4266668"/>
           <a:chOff x="2228850" y="600075"/>
           <a:chExt cx="5391150" cy="4266668"/>
         </a:xfrm>
@@ -4508,8 +4508,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="314325" y="857250"/>
-          <a:ext cx="8734425" cy="4819371"/>
+          <a:off x="346075" y="854075"/>
+          <a:ext cx="9623425" cy="4819371"/>
           <a:chOff x="361950" y="609600"/>
           <a:chExt cx="8734425" cy="4819371"/>
         </a:xfrm>
@@ -5034,8 +5034,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6257926" y="3038475"/>
-          <a:ext cx="1371600" cy="1743075"/>
+          <a:off x="6861176" y="3035300"/>
+          <a:ext cx="1562100" cy="1743075"/>
           <a:chOff x="6038851" y="781050"/>
           <a:chExt cx="1371600" cy="1743075"/>
         </a:xfrm>
@@ -5590,8 +5590,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="314325" y="714375"/>
-          <a:ext cx="5210175" cy="4047619"/>
+          <a:off x="346075" y="711200"/>
+          <a:ext cx="5718175" cy="4047619"/>
           <a:chOff x="266700" y="552450"/>
           <a:chExt cx="5210175" cy="4047619"/>
         </a:xfrm>
@@ -5782,8 +5782,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4524375" y="504825"/>
-          <a:ext cx="5104899" cy="4628571"/>
+          <a:off x="5000625" y="501650"/>
+          <a:ext cx="5612899" cy="4628571"/>
           <a:chOff x="3867150" y="390525"/>
           <a:chExt cx="5104899" cy="4628571"/>
         </a:xfrm>
@@ -6140,8 +6140,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="542925" y="771524"/>
-          <a:ext cx="6038095" cy="3800052"/>
+          <a:off x="574675" y="768349"/>
+          <a:ext cx="6673095" cy="3800052"/>
           <a:chOff x="1123950" y="342899"/>
           <a:chExt cx="6038095" cy="3800052"/>
         </a:xfrm>
@@ -6606,8 +6606,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="762000" y="5153025"/>
-          <a:ext cx="4810126" cy="3190484"/>
+          <a:off x="793750" y="5149850"/>
+          <a:ext cx="5318126" cy="3190484"/>
           <a:chOff x="1409700" y="790575"/>
           <a:chExt cx="4810126" cy="3190484"/>
         </a:xfrm>
@@ -6834,8 +6834,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="409575" y="600075"/>
-          <a:ext cx="4229100" cy="4942896"/>
+          <a:off x="441325" y="596900"/>
+          <a:ext cx="4673600" cy="4942896"/>
           <a:chOff x="914400" y="771525"/>
           <a:chExt cx="4229100" cy="4942896"/>
         </a:xfrm>
@@ -6957,8 +6957,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="495300" y="695325"/>
-          <a:ext cx="5762625" cy="4000000"/>
+          <a:off x="527050" y="692150"/>
+          <a:ext cx="6334125" cy="4000000"/>
           <a:chOff x="1733550" y="1219200"/>
           <a:chExt cx="5762625" cy="4000000"/>
         </a:xfrm>
@@ -7340,8 +7340,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="581025" y="619125"/>
-          <a:ext cx="4352925" cy="4038095"/>
+          <a:off x="612775" y="615950"/>
+          <a:ext cx="4797425" cy="4038095"/>
           <a:chOff x="581025" y="1190625"/>
           <a:chExt cx="4352925" cy="4038095"/>
         </a:xfrm>
@@ -7677,8 +7677,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="533400" y="981075"/>
-          <a:ext cx="4686300" cy="4038095"/>
+          <a:off x="565150" y="977900"/>
+          <a:ext cx="5194300" cy="4038095"/>
           <a:chOff x="1095375" y="857250"/>
           <a:chExt cx="4686300" cy="4038095"/>
         </a:xfrm>
@@ -8162,46 +8162,46 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="E6" zoomScale="188" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="20"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="20"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="20" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="20" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="19" t="s">
         <v>250</v>
       </c>
@@ -8227,22 +8227,22 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="6"/>
     </row>
   </sheetData>
@@ -8261,22 +8261,22 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
         <v>66</v>
       </c>
@@ -8297,25 +8297,25 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="5"/>
     </row>
   </sheetData>
@@ -8334,53 +8334,53 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="5"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C38" s="5"/>
     </row>
   </sheetData>
@@ -8399,25 +8399,25 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="5"/>
     </row>
   </sheetData>
@@ -8436,25 +8436,25 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="5"/>
     </row>
   </sheetData>
@@ -8473,25 +8473,25 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="5"/>
     </row>
   </sheetData>
@@ -8510,34 +8510,34 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
         <v>41091</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="7">
         <v>41091</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
         <v>41092</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
         <v>41092</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
         <v>41093</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
         <v>41093</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
         <v>41094</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
         <v>41094</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
         <v>41095</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
         <v>41095</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
         <v>41096</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="7">
         <v>41096</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="7">
         <v>41097</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="7">
         <v>41098</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="7">
         <v>41099</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="7">
         <v>41100</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="7">
         <v>41101</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="7">
         <v>41102</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="7">
         <v>41103</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="7">
         <v>41104</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="7">
         <v>41105</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="7">
         <v>41106</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="7">
         <v>41107</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="7">
         <v>41108</v>
       </c>
@@ -9123,42 +9123,44 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z372"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="9" width="17.140625" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="9" width="17.1640625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.5" customWidth="1"/>
+    <col min="14" max="14" width="21.5" customWidth="1"/>
+    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="19" width="21.42578125" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="18" max="19" width="21.5" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" customWidth="1"/>
     <col min="21" max="21" width="21" customWidth="1"/>
     <col min="22" max="22" width="25" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" customWidth="1"/>
-    <col min="24" max="24" width="10.85546875" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" customWidth="1"/>
+    <col min="23" max="23" width="11.83203125" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" customWidth="1"/>
+    <col min="25" max="25" width="11.5" customWidth="1"/>
+    <col min="26" max="26" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -9238,7 +9240,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -9318,7 +9320,7 @@
         <v>66.542000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -9398,7 +9400,7 @@
         <v>16.6145</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1003</v>
       </c>
@@ -9478,7 +9480,7 @@
         <v>198.72</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -9558,7 +9560,7 @@
         <v>448.11500000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1005</v>
       </c>
@@ -9638,7 +9640,7 @@
         <v>3.7345000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1006</v>
       </c>
@@ -9718,7 +9720,7 @@
         <v>141.42600000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1007</v>
       </c>
@@ -9798,7 +9800,7 @@
         <v>198.352</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1008</v>
       </c>
@@ -9878,7 +9880,7 @@
         <v>36.008800000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1009</v>
       </c>
@@ -9958,7 +9960,7 @@
         <v>79.340799999999987</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1010</v>
       </c>
@@ -10038,7 +10040,7 @@
         <v>122.24700000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1011</v>
       </c>
@@ -10118,7 +10120,7 @@
         <v>92.205749999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1012</v>
       </c>
@@ -10198,7 +10200,7 @@
         <v>133.12</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1013</v>
       </c>
@@ -10278,7 +10280,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1014</v>
       </c>
@@ -10358,7 +10360,7 @@
         <v>61.722750000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1015</v>
       </c>
@@ -10438,7 +10440,7 @@
         <v>27.717300000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1016</v>
       </c>
@@ -10509,7 +10511,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1017</v>
       </c>
@@ -10586,7 +10588,7 @@
         <v>80.75</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1018</v>
       </c>
@@ -10663,7 +10665,7 @@
         <v>35.903999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1019</v>
       </c>
@@ -10740,7 +10742,7 @@
         <v>42.099199999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1020</v>
       </c>
@@ -10814,7 +10816,7 @@
         <v>27.499500000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1021</v>
       </c>
@@ -10888,7 +10890,7 @@
         <v>15.090530000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1022</v>
       </c>
@@ -10959,7 +10961,7 @@
         <v>75.600000000000009</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1023</v>
       </c>
@@ -11030,7 +11032,7 @@
         <v>269.46800000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1024</v>
       </c>
@@ -11101,7 +11103,7 @@
         <v>20.033000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1025</v>
       </c>
@@ -11181,7 +11183,7 @@
         <v>93.605000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1026</v>
       </c>
@@ -11261,7 +11263,7 @@
         <v>114.76079999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1027</v>
       </c>
@@ -11341,7 +11343,7 @@
         <v>110.0385</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1028</v>
       </c>
@@ -11421,7 +11423,7 @@
         <v>295.97399999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1029</v>
       </c>
@@ -11501,7 +11503,7 @@
         <v>95.424000000000007</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1030</v>
       </c>
@@ -11581,7 +11583,7 @@
         <v>129.28</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1031</v>
       </c>
@@ -11661,7 +11663,7 @@
         <v>65.52</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1032</v>
       </c>
@@ -11741,7 +11743,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1033</v>
       </c>
@@ -11809,7 +11811,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1034</v>
       </c>
@@ -11877,7 +11879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1035</v>
       </c>
@@ -11945,7 +11947,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1036</v>
       </c>
@@ -12025,7 +12027,7 @@
         <v>48.88</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1038</v>
       </c>
@@ -12099,7 +12101,7 @@
         <v>16.464000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1039</v>
       </c>
@@ -12173,7 +12175,7 @@
         <v>285.12</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1040</v>
       </c>
@@ -12247,7 +12249,7 @@
         <v>23.680800000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1041</v>
       </c>
@@ -12327,7 +12329,7 @@
         <v>148.67200000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1042</v>
       </c>
@@ -12407,7 +12409,7 @@
         <v>24.752250000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1043</v>
       </c>
@@ -12487,7 +12489,7 @@
         <v>91.430250000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1044</v>
       </c>
@@ -12567,7 +12569,7 @@
         <v>15.746249999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1045</v>
       </c>
@@ -12647,7 +12649,7 @@
         <v>204.82000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1046</v>
       </c>
@@ -12727,7 +12729,7 @@
         <v>53.550000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1047</v>
       </c>
@@ -12807,7 +12809,7 @@
         <v>106.47000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1048</v>
       </c>
@@ -12887,7 +12889,7 @@
         <v>296.64</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1049</v>
       </c>
@@ -12967,7 +12969,7 @@
         <v>88.192000000000021</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1050</v>
       </c>
@@ -13039,7 +13041,7 @@
         <v>346.56</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1051</v>
       </c>
@@ -13110,7 +13112,7 @@
         <v>23.097750000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1052</v>
       </c>
@@ -13190,7 +13192,7 @@
         <v>108.32250000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1053</v>
       </c>
@@ -13270,7 +13272,7 @@
         <v>36.748799999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1054</v>
       </c>
@@ -13350,7 +13352,7 @@
         <v>71.974000000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1055</v>
       </c>
@@ -13430,7 +13432,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1056</v>
       </c>
@@ -13510,7 +13512,7 @@
         <v>91.024800000000013</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1057</v>
       </c>
@@ -13590,7 +13592,7 @@
         <v>46.46</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1058</v>
       </c>
@@ -13670,7 +13672,7 @@
         <v>196.74025</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1059</v>
       </c>
@@ -13750,7 +13752,7 @@
         <v>95.477100000000021</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1060</v>
       </c>
@@ -13830,7 +13832,7 @@
         <v>123.18800000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1061</v>
       </c>
@@ -13910,7 +13912,7 @@
         <v>100.80000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1062</v>
       </c>
@@ -13990,7 +13992,7 @@
         <v>20.196000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1064</v>
       </c>
@@ -14070,7 +14072,7 @@
         <v>642.41100000000006</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1065</v>
       </c>
@@ -14150,7 +14152,7 @@
         <v>24.605</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1067</v>
       </c>
@@ -14230,7 +14232,7 @@
         <v>217.04759999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1070</v>
       </c>
@@ -14310,7 +14312,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1071</v>
       </c>
@@ -14390,7 +14392,7 @@
         <v>295.36</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1075</v>
       </c>
@@ -14470,7 +14472,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1077</v>
       </c>
@@ -14545,7 +14547,7 @@
         <v>7.3500000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1078</v>
       </c>
@@ -14620,7 +14622,7 @@
         <v>270.68</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1079</v>
       </c>
@@ -14695,7 +14697,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1080</v>
       </c>
@@ -14775,7 +14777,7 @@
         <v>80.546000000000006</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1081</v>
       </c>
@@ -14855,7 +14857,7 @@
         <v>16.295999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1082</v>
       </c>
@@ -14935,7 +14937,7 @@
         <v>137.19600000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1083</v>
       </c>
@@ -15015,7 +15017,7 @@
         <v>428.35200000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1084</v>
       </c>
@@ -15095,7 +15097,7 @@
         <v>11.3712</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1085</v>
       </c>
@@ -15175,7 +15177,7 @@
         <v>58.751199999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1086</v>
       </c>
@@ -15255,7 +15257,7 @@
         <v>45.963750000000005</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1087</v>
       </c>
@@ -15335,7 +15337,7 @@
         <v>91.675000000000011</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1088</v>
       </c>
@@ -15415,7 +15417,7 @@
         <v>68.680000000000007</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1089</v>
       </c>
@@ -15495,7 +15497,7 @@
         <v>463.68000000000006</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1090</v>
       </c>
@@ -15575,7 +15577,7 @@
         <v>102.65025</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1091</v>
       </c>
@@ -15655,7 +15657,7 @@
         <v>26.04888</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1092</v>
       </c>
@@ -15727,7 +15729,7 @@
         <v>284.97000000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1093</v>
       </c>
@@ -15804,7 +15806,7 @@
         <v>68.849999999999994</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1094</v>
       </c>
@@ -15881,7 +15883,7 @@
         <v>85.470000000000013</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1095</v>
       </c>
@@ -15958,7 +15960,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1096</v>
       </c>
@@ -16033,7 +16035,7 @@
         <v>24.104500000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1097</v>
       </c>
@@ -16108,7 +16110,7 @@
         <v>26.04888</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1098</v>
       </c>
@@ -16180,7 +16182,7 @@
         <v>97.02</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1099</v>
       </c>
@@ -16260,7 +16262,7 @@
         <v>16.9575</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1100</v>
       </c>
@@ -16340,7 +16342,7 @@
         <v>42.324900000000007</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1101</v>
       </c>
@@ -16420,7 +16422,7 @@
         <v>254.52</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1102</v>
       </c>
@@ -16500,7 +16502,7 @@
         <v>165.60000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1103</v>
       </c>
@@ -16580,7 +16582,7 @@
         <v>54.366000000000007</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1104</v>
       </c>
@@ -16660,7 +16662,7 @@
         <v>10.255700000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1105</v>
       </c>
@@ -16731,7 +16733,7 @@
         <v>136.89599999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1106</v>
       </c>
@@ -16808,7 +16810,7 @@
         <v>123.5</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1107</v>
       </c>
@@ -16885,7 +16887,7 @@
         <v>67.320000000000007</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1108</v>
       </c>
@@ -16962,7 +16964,7 @@
         <v>38.474400000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1109</v>
       </c>
@@ -17037,7 +17039,7 @@
         <v>15.246</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1110</v>
       </c>
@@ -17112,7 +17114,7 @@
         <v>23.023000000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1111</v>
       </c>
@@ -17184,7 +17186,7 @@
         <v>52.722000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1112</v>
       </c>
@@ -17256,7 +17258,7 @@
         <v>368.36800000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1113</v>
       </c>
@@ -17328,7 +17330,7 @@
         <v>21.827000000000002</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1114</v>
       </c>
@@ -17408,7 +17410,7 @@
         <v>67.839500000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1115</v>
       </c>
@@ -17488,7 +17490,7 @@
         <v>46.46</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1116</v>
       </c>
@@ -17568,7 +17570,7 @@
         <v>153.50399999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1117</v>
       </c>
@@ -17648,7 +17650,7 @@
         <v>132.62279999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1118</v>
       </c>
@@ -17728,7 +17730,7 @@
         <v>112.896</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1119</v>
       </c>
@@ -17808,7 +17810,7 @@
         <v>283.24</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1120</v>
       </c>
@@ -17888,7 +17890,7 @@
         <v>44.573999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1121</v>
       </c>
@@ -17968,7 +17970,7 @@
         <v>68.64</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1122</v>
       </c>
@@ -18048,7 +18050,7 @@
         <v>74.554200000000009</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1123</v>
       </c>
@@ -18128,7 +18130,7 @@
         <v>87.313200000000009</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1124</v>
       </c>
@@ -18208,7 +18210,7 @@
         <v>115.40479999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1125</v>
       </c>
@@ -18288,7 +18290,7 @@
         <v>30.870000000000005</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1126</v>
       </c>
@@ -18368,7 +18370,7 @@
         <v>24.46725</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1128</v>
       </c>
@@ -18448,7 +18450,7 @@
         <v>195.61500000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1129</v>
       </c>
@@ -18528,7 +18530,7 @@
         <v>51.912000000000006</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1131</v>
       </c>
@@ -18608,7 +18610,7 @@
         <v>75.02879999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1134</v>
       </c>
@@ -18688,7 +18690,7 @@
         <v>85.28</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1135</v>
       </c>
@@ -18768,7 +18770,7 @@
         <v>411.6</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1138</v>
       </c>
@@ -18840,7 +18842,7 @@
         <v>310.27</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1139</v>
       </c>
@@ -18917,7 +18919,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1140</v>
       </c>
@@ -18994,7 +18996,7 @@
         <v>172.48</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1141</v>
       </c>
@@ -19071,7 +19073,7 @@
         <v>33.211999999999996</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1142</v>
       </c>
@@ -19146,7 +19148,7 @@
         <v>10.290000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1143</v>
       </c>
@@ -19221,7 +19223,7 @@
         <v>17.581200000000003</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1144</v>
       </c>
@@ -19293,7 +19295,7 @@
         <v>58.212000000000003</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1145</v>
       </c>
@@ -19365,7 +19367,7 @@
         <v>101.2</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1146</v>
       </c>
@@ -19437,7 +19439,7 @@
         <v>14.944020000000002</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1147</v>
       </c>
@@ -19517,7 +19519,7 @@
         <v>57.321000000000005</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1148</v>
       </c>
@@ -19597,7 +19599,7 @@
         <v>183.9264</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1149</v>
       </c>
@@ -19677,7 +19679,7 @@
         <v>51.070500000000003</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1150</v>
       </c>
@@ -19757,7 +19759,7 @@
         <v>303.17759999999993</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1151</v>
       </c>
@@ -19837,7 +19839,7 @@
         <v>95.55</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1152</v>
       </c>
@@ -19917,7 +19919,7 @@
         <v>148.96</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1153</v>
       </c>
@@ -19997,7 +19999,7 @@
         <v>70.656000000000006</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1154</v>
       </c>
@@ -20077,7 +20079,7 @@
         <v>47.04</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1155</v>
       </c>
@@ -20157,7 +20159,7 @@
         <v>186.38550000000004</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1156</v>
       </c>
@@ -20237,7 +20239,7 @@
         <v>59.637000000000008</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1157</v>
       </c>
@@ -20317,7 +20319,7 @@
         <v>71.759999999999991</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1158</v>
       </c>
@@ -20397,7 +20399,7 @@
         <v>113.91800000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1159</v>
       </c>
@@ -20477,7 +20479,7 @@
         <v>57.222000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1161</v>
       </c>
@@ -20557,7 +20559,7 @@
         <v>769.98599999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1162</v>
       </c>
@@ -20637,7 +20639,7 @@
         <v>42.273000000000003</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1164</v>
       </c>
@@ -20717,7 +20719,7 @@
         <v>109.62</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1167</v>
       </c>
@@ -20797,7 +20799,7 @@
         <v>25.200000000000003</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1168</v>
       </c>
@@ -20877,7 +20879,7 @@
         <v>109.75999999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1172</v>
       </c>
@@ -20957,7 +20959,7 @@
         <v>71.78</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1174</v>
       </c>
@@ -21032,7 +21034,7 @@
         <v>30.24</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1175</v>
       </c>
@@ -21107,7 +21109,7 @@
         <v>111.24000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1176</v>
       </c>
@@ -21182,7 +21184,7 @@
         <v>137.172</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1177</v>
       </c>
@@ -21262,7 +21264,7 @@
         <v>340.40000000000003</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1178</v>
       </c>
@@ -21342,7 +21344,7 @@
         <v>72.6066</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1179</v>
       </c>
@@ -21422,7 +21424,7 @@
         <v>123.62400000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1180</v>
       </c>
@@ -21502,7 +21504,7 @@
         <v>116.12700000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1181</v>
       </c>
@@ -21582,7 +21584,7 @@
         <v>200.50800000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1182</v>
       </c>
@@ -21662,7 +21664,7 @@
         <v>42.75</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1183</v>
       </c>
@@ -21742,7 +21744,7 @@
         <v>397.48800000000006</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1184</v>
       </c>
@@ -21822,7 +21824,7 @@
         <v>135.24</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1185</v>
       </c>
@@ -21902,7 +21904,7 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1186</v>
       </c>
@@ -21974,7 +21976,7 @@
         <v>319.77</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1187</v>
       </c>
@@ -22046,7 +22048,7 @@
         <v>25.522639999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1188</v>
       </c>
@@ -22118,7 +22120,7 @@
         <v>23.976810000000004</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1189</v>
       </c>
@@ -22198,7 +22200,7 @@
         <v>30.252749999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1190</v>
       </c>
@@ -22278,7 +22280,7 @@
         <v>90.804000000000002</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1191</v>
       </c>
@@ -22358,7 +22360,7 @@
         <v>123.70800000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1192</v>
       </c>
@@ -22438,7 +22440,7 @@
         <v>95.839199999999991</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1193</v>
       </c>
@@ -22518,7 +22520,7 @@
         <v>118.77600000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1194</v>
       </c>
@@ -22598,7 +22600,7 @@
         <v>360.36</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1195</v>
       </c>
@@ -22678,7 +22680,7 @@
         <v>34.444800000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1196</v>
       </c>
@@ -22758,7 +22760,7 @@
         <v>34.340000000000003</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1197</v>
       </c>
@@ -22838,7 +22840,7 @@
         <v>178.12305000000003</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1198</v>
       </c>
@@ -22918,7 +22920,7 @@
         <v>23.401250000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1199</v>
       </c>
@@ -22998,7 +23000,7 @@
         <v>22.08</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1200</v>
       </c>
@@ -23078,7 +23080,7 @@
         <v>30.912000000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1201</v>
       </c>
@@ -23158,7 +23160,7 @@
         <v>97.869</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1203</v>
       </c>
@@ -23238,7 +23240,7 @@
         <v>445.5</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1204</v>
       </c>
@@ -23318,7 +23320,7 @@
         <v>12.901</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1206</v>
       </c>
@@ -23398,7 +23400,7 @@
         <v>89.261999999999986</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1209</v>
       </c>
@@ -23478,7 +23480,7 @@
         <v>95.039999999999992</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1210</v>
       </c>
@@ -23558,7 +23560,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1214</v>
       </c>
@@ -23638,7 +23640,7 @@
         <v>77.599999999999994</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1216</v>
       </c>
@@ -23713,7 +23715,7 @@
         <v>9.072000000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1217</v>
       </c>
@@ -23787,7 +23789,7 @@
         <v>380.24</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1218</v>
       </c>
@@ -23861,7 +23863,7 @@
         <v>80.371200000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>1219</v>
       </c>
@@ -23941,7 +23943,7 @@
         <v>105.98399999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1220</v>
       </c>
@@ -24021,7 +24023,7 @@
         <v>83.376000000000005</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1221</v>
       </c>
@@ -24101,7 +24103,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1222</v>
       </c>
@@ -24181,7 +24183,7 @@
         <v>133.95200000000003</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1223</v>
       </c>
@@ -24261,7 +24263,7 @@
         <v>69.768000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1224</v>
       </c>
@@ -24341,7 +24343,7 @@
         <v>6.6706900000000013</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1225</v>
       </c>
@@ -24413,7 +24415,7 @@
         <v>399.55600000000004</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1226</v>
       </c>
@@ -24490,7 +24492,7 @@
         <v>116.325</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1227</v>
       </c>
@@ -24567,7 +24569,7 @@
         <v>221.93600000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1228</v>
       </c>
@@ -24644,7 +24646,7 @@
         <v>86.553599999999989</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1229</v>
       </c>
@@ -24719,7 +24721,7 @@
         <v>10.850000000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1230</v>
       </c>
@@ -24794,7 +24796,7 @@
         <v>16.014440000000004</v>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1231</v>
       </c>
@@ -24866,7 +24868,7 @@
         <v>158.886</v>
       </c>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>1232</v>
       </c>
@@ -24938,7 +24940,7 @@
         <v>63.756000000000007</v>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>1233</v>
       </c>
@@ -25010,7 +25012,7 @@
         <v>13.287560000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1234</v>
       </c>
@@ -25090,7 +25092,7 @@
         <v>95.477100000000021</v>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1235</v>
       </c>
@@ -25170,7 +25172,7 @@
         <v>150.14400000000003</v>
       </c>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>1236</v>
       </c>
@@ -25250,7 +25252,7 @@
         <v>132.56100000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1237</v>
       </c>
@@ -25330,7 +25332,7 @@
         <v>111.36</v>
       </c>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1238</v>
       </c>
@@ -25410,7 +25412,7 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1239</v>
       </c>
@@ -25490,7 +25492,7 @@
         <v>318.24</v>
       </c>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>1240</v>
       </c>
@@ -25570,7 +25572,7 @@
         <v>49.183199999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>1241</v>
       </c>
@@ -25650,7 +25652,7 @@
         <v>52.25</v>
       </c>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>1242</v>
       </c>
@@ -25730,7 +25732,7 @@
         <v>129.381</v>
       </c>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>1243</v>
       </c>
@@ -25810,7 +25812,7 @@
         <v>17.41825</v>
       </c>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>1244</v>
       </c>
@@ -25890,7 +25892,7 @@
         <v>125.08320000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>1245</v>
       </c>
@@ -25970,7 +25972,7 @@
         <v>59.388000000000005</v>
       </c>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1246</v>
       </c>
@@ -26050,7 +26052,7 @@
         <v>89.046000000000006</v>
       </c>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>1248</v>
       </c>
@@ -26130,7 +26132,7 @@
         <v>251.42399999999998</v>
       </c>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>1249</v>
       </c>
@@ -26210,7 +26212,7 @@
         <v>53.732000000000006</v>
       </c>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>1250</v>
       </c>
@@ -26287,7 +26289,7 @@
         <v>74.832799999999992</v>
       </c>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>1251</v>
       </c>
@@ -26362,7 +26364,7 @@
         <v>31.213000000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>1252</v>
       </c>
@@ -26437,7 +26439,7 @@
         <v>19.518720000000002</v>
       </c>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>1253</v>
       </c>
@@ -26509,7 +26511,7 @@
         <v>103.35600000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>1254</v>
       </c>
@@ -26581,7 +26583,7 @@
         <v>464.04800000000006</v>
       </c>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>1255</v>
       </c>
@@ -26653,7 +26655,7 @@
         <v>4.35344</v>
       </c>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>1256</v>
       </c>
@@ -26733,7 +26735,7 @@
         <v>64.307600000000008</v>
       </c>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>1257</v>
       </c>
@@ -26813,7 +26815,7 @@
         <v>58.879999999999995</v>
       </c>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>1258</v>
       </c>
@@ -26893,7 +26895,7 @@
         <v>94.536000000000016</v>
       </c>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>1259</v>
       </c>
@@ -26973,7 +26975,7 @@
         <v>194.39280000000002</v>
       </c>
     </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>1260</v>
       </c>
@@ -27053,7 +27055,7 @@
         <v>98.490000000000009</v>
       </c>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>1261</v>
       </c>
@@ -27133,7 +27135,7 @@
         <v>188.16</v>
       </c>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>1262</v>
       </c>
@@ -27213,7 +27215,7 @@
         <v>72.256799999999998</v>
       </c>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>1263</v>
       </c>
@@ -27293,7 +27295,7 @@
         <v>97.76</v>
       </c>
     </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>1264</v>
       </c>
@@ -27373,7 +27375,7 @@
         <v>121.05450000000003</v>
       </c>
     </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>1265</v>
       </c>
@@ -27453,7 +27455,7 @@
         <v>40.250150000000005</v>
       </c>
     </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>1266</v>
       </c>
@@ -27533,7 +27535,7 @@
         <v>134.55919999999998</v>
       </c>
     </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>1267</v>
       </c>
@@ -27613,7 +27615,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>1268</v>
       </c>
@@ -27693,7 +27695,7 @@
         <v>119.952</v>
       </c>
     </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>1270</v>
       </c>
@@ -27773,7 +27775,7 @@
         <v>437.40000000000003</v>
       </c>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>1271</v>
       </c>
@@ -27853,7 +27855,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1273</v>
       </c>
@@ -27933,7 +27935,7 @@
         <v>230.202</v>
       </c>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>1276</v>
       </c>
@@ -28013,7 +28015,7 @@
         <v>73.13</v>
       </c>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>1277</v>
       </c>
@@ -28093,7 +28095,7 @@
         <v>366.08000000000004</v>
       </c>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>1281</v>
       </c>
@@ -28173,7 +28175,7 @@
         <v>59.59</v>
       </c>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>1282</v>
       </c>
@@ -28253,7 +28255,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>1283</v>
       </c>
@@ -28333,7 +28335,7 @@
         <v>379.77600000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1284</v>
       </c>
@@ -28413,7 +28415,7 @@
         <v>78.552750000000003</v>
       </c>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>1285</v>
       </c>
@@ -28493,7 +28495,7 @@
         <v>9.7593600000000009</v>
       </c>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>1286</v>
       </c>
@@ -28565,7 +28567,7 @@
         <v>290.904</v>
       </c>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>1287</v>
       </c>
@@ -28642,7 +28644,7 @@
         <v>154.5</v>
       </c>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>1288</v>
       </c>
@@ -28719,7 +28721,7 @@
         <v>109.956</v>
       </c>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>1289</v>
       </c>
@@ -28796,7 +28798,7 @@
         <v>44.629199999999997</v>
       </c>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>1290</v>
       </c>
@@ -28870,7 +28872,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>1291</v>
       </c>
@@ -28944,7 +28946,7 @@
         <v>14.651000000000003</v>
       </c>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>1292</v>
       </c>
@@ -29015,7 +29017,7 @@
         <v>38.015999999999998</v>
       </c>
     </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>1293</v>
       </c>
@@ -29086,7 +29088,7 @@
         <v>339.15800000000002</v>
       </c>
     </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>1294</v>
       </c>
@@ -29157,7 +29159,7 @@
         <v>24.652550000000002</v>
       </c>
     </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>1295</v>
       </c>
@@ -29237,7 +29239,7 @@
         <v>44.158400000000007</v>
       </c>
     </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>1296</v>
       </c>
@@ -29317,7 +29319,7 @@
         <v>42.835199999999993</v>
       </c>
     </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>1297</v>
       </c>
@@ -29397,7 +29399,7 @@
         <v>119.80800000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>1298</v>
       </c>
@@ -29477,7 +29479,7 @@
         <v>246.03600000000003</v>
       </c>
     </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>1299</v>
       </c>
@@ -29557,7 +29559,7 @@
         <v>138.57200000000003</v>
       </c>
     </row>
-    <row r="264" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1300</v>
       </c>
@@ -29637,7 +29639,7 @@
         <v>188.16</v>
       </c>
     </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>1301</v>
       </c>
@@ -29717,7 +29719,7 @@
         <v>91.08</v>
       </c>
     </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>1302</v>
       </c>
@@ -29797,7 +29799,7 @@
         <v>87.3</v>
       </c>
     </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>1303</v>
       </c>
@@ -29877,7 +29879,7 @@
         <v>102.5227</v>
       </c>
     </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>1304</v>
       </c>
@@ -29957,7 +29959,7 @@
         <v>65.7744</v>
       </c>
     </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>1305</v>
       </c>
@@ -30037,7 +30039,7 @@
         <v>19.136000000000003</v>
       </c>
     </row>
-    <row r="270" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>1306</v>
       </c>
@@ -30117,7 +30119,7 @@
         <v>112.476</v>
       </c>
     </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>1307</v>
       </c>
@@ -30197,7 +30199,7 @@
         <v>53.856000000000002</v>
       </c>
     </row>
-    <row r="272" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>1309</v>
       </c>
@@ -30277,7 +30279,7 @@
         <v>697.41000000000008</v>
       </c>
     </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>1310</v>
       </c>
@@ -30357,7 +30359,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="274" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>1312</v>
       </c>
@@ -30437,7 +30439,7 @@
         <v>313.93079999999998</v>
       </c>
     </row>
-    <row r="275" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>1315</v>
       </c>
@@ -30517,7 +30519,7 @@
         <v>11.440000000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>1316</v>
       </c>
@@ -30597,7 +30599,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="277" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>1320</v>
       </c>
@@ -30677,7 +30679,7 @@
         <v>12.36</v>
       </c>
     </row>
-    <row r="278" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>1322</v>
       </c>
@@ -30752,7 +30754,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="279" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>1323</v>
       </c>
@@ -30827,7 +30829,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="280" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>1324</v>
       </c>
@@ -30902,7 +30904,7 @@
         <v>43.589600000000004</v>
       </c>
     </row>
-    <row r="281" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>1325</v>
       </c>
@@ -30982,7 +30984,7 @@
         <v>157.964</v>
       </c>
     </row>
-    <row r="282" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>1326</v>
       </c>
@@ -31062,7 +31064,7 @@
         <v>86.743850000000009</v>
       </c>
     </row>
-    <row r="283" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>1327</v>
       </c>
@@ -31142,7 +31144,7 @@
         <v>103.50450000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>1328</v>
       </c>
@@ -31222,7 +31224,7 @@
         <v>52.631999999999998</v>
       </c>
     </row>
-    <row r="285" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>1329</v>
       </c>
@@ -31299,7 +31301,7 @@
         <v>221.76000000000002</v>
       </c>
     </row>
-    <row r="286" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>1330</v>
       </c>
@@ -31376,7 +31378,7 @@
         <v>31.279999999999998</v>
       </c>
     </row>
-    <row r="287" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>1331</v>
       </c>
@@ -31451,7 +31453,7 @@
         <v>15.141000000000002</v>
       </c>
     </row>
-    <row r="288" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>1332</v>
       </c>
@@ -31526,7 +31528,7 @@
         <v>30.498000000000001</v>
       </c>
     </row>
-    <row r="289" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>1333</v>
       </c>
@@ -31597,7 +31599,7 @@
         <v>76.356000000000009</v>
       </c>
     </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>1334</v>
       </c>
@@ -31669,7 +31671,7 @@
         <v>70.656000000000006</v>
       </c>
     </row>
-    <row r="291" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>1335</v>
       </c>
@@ -31741,7 +31743,7 @@
         <v>6.3806599999999998</v>
       </c>
     </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>1336</v>
       </c>
@@ -31821,7 +31823,7 @@
         <v>45.721700000000006</v>
       </c>
     </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>1337</v>
       </c>
@@ -31901,7 +31903,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>1338</v>
       </c>
@@ -31981,7 +31983,7 @@
         <v>174.73950000000002</v>
       </c>
     </row>
-    <row r="295" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>1339</v>
       </c>
@@ -32061,7 +32063,7 @@
         <v>205.8768</v>
       </c>
     </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>1340</v>
       </c>
@@ -32141,7 +32143,7 @@
         <v>120.19</v>
       </c>
     </row>
-    <row r="297" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>1341</v>
       </c>
@@ -32221,7 +32223,7 @@
         <v>110.88</v>
       </c>
     </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>1342</v>
       </c>
@@ -32301,7 +32303,7 @@
         <v>17.130400000000002</v>
       </c>
     </row>
-    <row r="299" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>1343</v>
       </c>
@@ -32381,7 +32383,7 @@
         <v>102.96000000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>1344</v>
       </c>
@@ -32461,7 +32463,7 @@
         <v>153.20760000000004</v>
       </c>
     </row>
-    <row r="301" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>1345</v>
       </c>
@@ -32541,7 +32543,7 @@
         <v>33.919750000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>1346</v>
       </c>
@@ -32621,7 +32623,7 @@
         <v>118.93759999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>1347</v>
       </c>
@@ -32701,7 +32703,7 @@
         <v>55.328000000000003</v>
       </c>
     </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>1348</v>
       </c>
@@ -32781,7 +32783,7 @@
         <v>18.55125</v>
       </c>
     </row>
-    <row r="305" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>1350</v>
       </c>
@@ -32861,7 +32863,7 @@
         <v>412.77600000000001</v>
       </c>
     </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>1351</v>
       </c>
@@ -32941,7 +32943,7 @@
         <v>25.382000000000001</v>
       </c>
     </row>
-    <row r="307" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>1353</v>
       </c>
@@ -33021,7 +33023,7 @@
         <v>80.179199999999994</v>
       </c>
     </row>
-    <row r="308" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>1356</v>
       </c>
@@ -33101,7 +33103,7 @@
         <v>37.08</v>
       </c>
     </row>
-    <row r="309" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>1357</v>
       </c>
@@ -33181,7 +33183,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="310" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>1361</v>
       </c>
@@ -33261,7 +33263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>1363</v>
       </c>
@@ -33336,7 +33338,7 @@
         <v>3.7345000000000002</v>
       </c>
     </row>
-    <row r="312" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>1364</v>
       </c>
@@ -33411,7 +33413,7 @@
         <v>299.52</v>
       </c>
     </row>
-    <row r="313" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>1365</v>
       </c>
@@ -33486,7 +33488,7 @@
         <v>144.0352</v>
       </c>
     </row>
-    <row r="314" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>1366</v>
       </c>
@@ -33566,7 +33568,7 @@
         <v>272.68799999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>1367</v>
       </c>
@@ -33646,7 +33648,7 @@
         <v>12.9696</v>
       </c>
     </row>
-    <row r="316" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>1368</v>
       </c>
@@ -33726,7 +33728,7 @@
         <v>19.796000000000003</v>
       </c>
     </row>
-    <row r="317" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>1369</v>
       </c>
@@ -33806,7 +33808,7 @@
         <v>25.234999999999999</v>
       </c>
     </row>
-    <row r="318" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>1370</v>
       </c>
@@ -33886,7 +33888,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="319" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>1371</v>
       </c>
@@ -33966,7 +33968,7 @@
         <v>143.1</v>
       </c>
     </row>
-    <row r="320" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>1372</v>
       </c>
@@ -34046,7 +34048,7 @@
         <v>24.009999999999998</v>
       </c>
     </row>
-    <row r="321" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>1373</v>
       </c>
@@ -34126,7 +34128,7 @@
         <v>102.60000000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>1374</v>
       </c>
@@ -34206,7 +34208,7 @@
         <v>374.16399999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>1375</v>
       </c>
@@ -34286,7 +34288,7 @@
         <v>67.123199999999997</v>
       </c>
     </row>
-    <row r="324" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>1376</v>
       </c>
@@ -34366,7 +34368,7 @@
         <v>72.864000000000004</v>
       </c>
     </row>
-    <row r="325" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>1377</v>
       </c>
@@ -34446,7 +34448,7 @@
         <v>59.325750000000006</v>
       </c>
     </row>
-    <row r="326" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>1378</v>
       </c>
@@ -34526,7 +34528,7 @@
         <v>94.492800000000017</v>
       </c>
     </row>
-    <row r="327" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>1379</v>
       </c>
@@ -34606,7 +34608,7 @@
         <v>134.4</v>
       </c>
     </row>
-    <row r="328" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>1380</v>
       </c>
@@ -34686,7 +34688,7 @@
         <v>73.600000000000009</v>
       </c>
     </row>
-    <row r="329" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>1381</v>
       </c>
@@ -34766,7 +34768,7 @@
         <v>51.229500000000002</v>
       </c>
     </row>
-    <row r="330" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>1382</v>
       </c>
@@ -34846,7 +34848,7 @@
         <v>12.871950000000002</v>
       </c>
     </row>
-    <row r="331" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>1383</v>
       </c>
@@ -34918,7 +34920,7 @@
         <v>194.25800000000004</v>
       </c>
     </row>
-    <row r="332" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>1384</v>
       </c>
@@ -34995,7 +34997,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="333" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>1385</v>
       </c>
@@ -35072,7 +35074,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="334" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>1386</v>
       </c>
@@ -35149,7 +35151,7 @@
         <v>12.438400000000001</v>
       </c>
     </row>
-    <row r="335" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>1387</v>
       </c>
@@ -35223,7 +35225,7 @@
         <v>26.936000000000003</v>
       </c>
     </row>
-    <row r="336" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>1388</v>
       </c>
@@ -35297,7 +35299,7 @@
         <v>16.005470000000003</v>
       </c>
     </row>
-    <row r="337" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>1389</v>
       </c>
@@ -35368,7 +35370,7 @@
         <v>174.63600000000002</v>
       </c>
     </row>
-    <row r="338" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>1390</v>
       </c>
@@ -35439,7 +35441,7 @@
         <v>388.93</v>
       </c>
     </row>
-    <row r="339" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>1391</v>
       </c>
@@ -35511,7 +35513,7 @@
         <v>19.518720000000002</v>
       </c>
     </row>
-    <row r="340" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>1392</v>
       </c>
@@ -35591,7 +35593,7 @@
         <v>96.461400000000012</v>
       </c>
     </row>
-    <row r="341" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>1393</v>
       </c>
@@ -35671,7 +35673,7 @@
         <v>155.0752</v>
       </c>
     </row>
-    <row r="342" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>1394</v>
       </c>
@@ -35751,7 +35753,7 @@
         <v>40.950000000000003</v>
       </c>
     </row>
-    <row r="343" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>1395</v>
       </c>
@@ -35831,7 +35833,7 @@
         <v>240.12</v>
       </c>
     </row>
-    <row r="344" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>1396</v>
       </c>
@@ -35911,7 +35913,7 @@
         <v>91.391999999999996</v>
       </c>
     </row>
-    <row r="345" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>1397</v>
       </c>
@@ -35991,7 +35993,7 @@
         <v>203.84</v>
       </c>
     </row>
-    <row r="346" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>1398</v>
       </c>
@@ -36071,7 +36073,7 @@
         <v>38.640000000000008</v>
       </c>
     </row>
-    <row r="347" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>1399</v>
       </c>
@@ -36151,7 +36153,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="348" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>1400</v>
       </c>
@@ -36231,7 +36233,7 @@
         <v>184.12240000000003</v>
       </c>
     </row>
-    <row r="349" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>1401</v>
       </c>
@@ -36311,7 +36313,7 @@
         <v>42.614400000000003</v>
       </c>
     </row>
-    <row r="350" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>1402</v>
       </c>
@@ -36391,7 +36393,7 @@
         <v>167.69759999999999</v>
       </c>
     </row>
-    <row r="351" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>1403</v>
       </c>
@@ -36471,7 +36473,7 @@
         <v>141.12</v>
       </c>
     </row>
-    <row r="352" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>1404</v>
       </c>
@@ -36551,7 +36553,7 @@
         <v>16.065000000000001</v>
       </c>
     </row>
-    <row r="353" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>1406</v>
       </c>
@@ -36631,7 +36633,7 @@
         <v>292.41000000000003</v>
       </c>
     </row>
-    <row r="354" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>1407</v>
       </c>
@@ -36711,7 +36713,7 @@
         <v>29.106000000000002</v>
       </c>
     </row>
-    <row r="355" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>1409</v>
       </c>
@@ -36791,7 +36793,7 @@
         <v>344.52</v>
       </c>
     </row>
-    <row r="356" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>1412</v>
       </c>
@@ -36871,7 +36873,7 @@
         <v>87.22</v>
       </c>
     </row>
-    <row r="357" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>1413</v>
       </c>
@@ -36951,7 +36953,7 @@
         <v>46.56</v>
       </c>
     </row>
-    <row r="358" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>1417</v>
       </c>
@@ -37031,7 +37033,7 @@
         <v>100.88000000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>1419</v>
       </c>
@@ -37106,7 +37108,7 @@
         <v>17.622499999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>1420</v>
       </c>
@@ -37181,7 +37183,7 @@
         <v>248.88</v>
       </c>
     </row>
-    <row r="361" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>1421</v>
       </c>
@@ -37256,7 +37258,7 @@
         <v>81.143999999999991</v>
       </c>
     </row>
-    <row r="362" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>1422</v>
       </c>
@@ -37336,7 +37338,7 @@
         <v>197.8</v>
       </c>
     </row>
-    <row r="363" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>1423</v>
       </c>
@@ -37416,7 +37418,7 @@
         <v>16.5015</v>
       </c>
     </row>
-    <row r="364" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>1424</v>
       </c>
@@ -37496,7 +37498,7 @@
         <v>50.706750000000007</v>
       </c>
     </row>
-    <row r="365" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>1425</v>
       </c>
@@ -37576,7 +37578,7 @@
         <v>23.982750000000003</v>
       </c>
     </row>
-    <row r="366" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>1426</v>
       </c>
@@ -37656,7 +37658,7 @@
         <v>138.71</v>
       </c>
     </row>
-    <row r="367" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>1427</v>
       </c>
@@ -37736,7 +37738,7 @@
         <v>32.174999999999997</v>
       </c>
     </row>
-    <row r="368" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>1428</v>
       </c>
@@ -37816,7 +37818,7 @@
         <v>214.81200000000004</v>
       </c>
     </row>
-    <row r="369" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>1429</v>
       </c>
@@ -37896,7 +37898,7 @@
         <v>95.039999999999992</v>
       </c>
     </row>
-    <row r="370" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>1430</v>
       </c>
@@ -37976,7 +37978,7 @@
         <v>185.60600000000002</v>
       </c>
     </row>
-    <row r="371" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>1431</v>
       </c>
@@ -38048,7 +38050,7 @@
         <v>226.44200000000001</v>
       </c>
     </row>
-    <row r="372" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>1432</v>
       </c>
@@ -38136,12 +38138,12 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>68</v>
       </c>
@@ -38152,68 +38154,68 @@
       </c>
       <c r="M1" s="35"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="34"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="19" t="s">
         <v>247</v>
       </c>
@@ -38222,24 +38224,24 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
@@ -38249,27 +38251,27 @@
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="19" t="s">
         <v>242</v>
       </c>
@@ -38304,24 +38306,24 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="4.1640625" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="10">
         <v>1</v>
       </c>
@@ -38329,7 +38331,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="10">
         <v>2</v>
       </c>
@@ -38337,7 +38339,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="10">
         <v>3</v>
       </c>
@@ -38345,7 +38347,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="10">
         <v>4</v>
       </c>
@@ -38353,7 +38355,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="10">
         <v>5</v>
       </c>
@@ -38361,7 +38363,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="10">
         <v>6</v>
       </c>
@@ -38369,7 +38371,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="10">
         <v>7</v>
       </c>
@@ -38377,7 +38379,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="10">
         <v>8</v>
       </c>
@@ -38385,7 +38387,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="10">
         <v>9</v>
       </c>
@@ -38393,7 +38395,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="10">
         <v>10</v>
       </c>
@@ -38401,7 +38403,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="10">
         <v>11</v>
       </c>
@@ -38409,7 +38411,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="10">
         <v>12</v>
       </c>
@@ -38417,7 +38419,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="10">
         <v>13</v>
       </c>
@@ -38425,26 +38427,26 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="12"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="12"/>
     </row>
   </sheetData>
@@ -38475,15 +38477,15 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="3" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="3" width="2.6640625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="56.28515625" customWidth="1"/>
+    <col min="5" max="5" width="56.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>298</v>
       </c>
@@ -38491,15 +38493,15 @@
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="12"/>
     </row>
-    <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="21" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="27" t="s">
         <v>255</v>
       </c>
@@ -38508,7 +38510,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="28" t="s">
         <v>259</v>
       </c>
@@ -38517,7 +38519,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="28" t="s">
         <v>261</v>
       </c>
@@ -38526,22 +38528,22 @@
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="21" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="21"/>
     </row>
-    <row r="10" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="21"/>
       <c r="C10" s="3" t="s">
         <v>292</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="21"/>
       <c r="D11" s="33" t="s">
         <v>265</v>
@@ -38550,7 +38552,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="21"/>
       <c r="D12" s="32" t="s">
         <v>267</v>
@@ -38559,7 +38561,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D13" s="32" t="s">
         <v>273</v>
       </c>
@@ -38567,7 +38569,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D14" s="32" t="s">
         <v>272</v>
       </c>
@@ -38575,7 +38577,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="32" t="s">
         <v>271</v>
       </c>
@@ -38583,7 +38585,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D16" s="32" t="s">
         <v>270</v>
       </c>
@@ -38591,7 +38593,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" s="32" t="s">
         <v>262</v>
       </c>
@@ -38599,7 +38601,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="32" t="s">
         <v>269</v>
       </c>
@@ -38607,13 +38609,13 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C20" s="3" t="s">
         <v>283</v>
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="33" t="s">
         <v>285</v>
       </c>
@@ -38621,7 +38623,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" s="32" t="s">
         <v>288</v>
       </c>
@@ -38629,7 +38631,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="32" t="s">
         <v>289</v>
       </c>
@@ -38637,13 +38639,13 @@
         <v>287</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C25" s="3" t="s">
         <v>299</v>
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="33" t="s">
         <v>275</v>
       </c>
@@ -38651,7 +38653,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D27" s="32" t="s">
         <v>276</v>
       </c>
@@ -38659,7 +38661,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" s="32" t="s">
         <v>277</v>
       </c>
@@ -38667,7 +38669,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D29" s="32" t="s">
         <v>278</v>
       </c>
@@ -38675,7 +38677,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="32" t="s">
         <v>295</v>
       </c>
@@ -38683,14 +38685,14 @@
         <v>296</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
     </row>
-    <row r="33" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="33" t="s">
         <v>291</v>
       </c>
@@ -38699,12 +38701,12 @@
         <v>293</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="33" t="s">
         <v>300</v>
       </c>
@@ -38713,7 +38715,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="33" t="s">
         <v>302</v>
       </c>
@@ -38722,15 +38724,15 @@
         <v>303</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C38" s="11"/>
       <c r="E38" s="31"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C39" s="11"/>
       <c r="E39" s="31"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="26"/>
       <c r="B40" s="26" t="s">
         <v>294</v>
@@ -38739,7 +38741,7 @@
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" s="25" t="s">
         <v>306</v>
       </c>
@@ -38765,17 +38767,17 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
@@ -38796,17 +38798,17 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
@@ -38827,47 +38829,47 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C29" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C30" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C31" s="5" t="s">
         <v>264</v>
       </c>
@@ -38889,47 +38891,47 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C29" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C30" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C31" s="4"/>
     </row>
   </sheetData>
@@ -38948,27 +38950,27 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>64</v>
       </c>
